--- a/src/test/java/com/inetBanking/Testdata/testdata.xlsx
+++ b/src/test/java/com/inetBanking/Testdata/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16845" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16440" windowHeight="3870"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Username</t>
   </si>
@@ -25,16 +25,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>mngr264380</t>
-  </si>
-  <si>
     <t>qUrUzEv1</t>
   </si>
   <si>
-    <t>mngr271931</t>
+    <t>mngr298653</t>
   </si>
   <si>
-    <t>ahubuvA</t>
+    <t>ahAdaqa</t>
   </si>
 </sst>
 </file>
@@ -426,7 +423,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,34 +442,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
